--- a/pteste.xlsx
+++ b/pteste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Tatsumi\Desktop\Intensivão Python\BotTesteLiga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B3D607-27AC-473F-ADEF-F8B7750069C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F6FB9C-88ED-4E46-BC59-1DF0F02636C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18330" yWindow="150" windowWidth="14325" windowHeight="16200" xr2:uid="{E57D9649-9532-4EA6-88CE-5BC53FA9CCF0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Nome</t>
   </si>
@@ -106,13 +106,55 @@
   </si>
   <si>
     <t>CRZ</t>
+  </si>
+  <si>
+    <t>Iron Valiant ex</t>
+  </si>
+  <si>
+    <t>(089/182)</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>(261/182)</t>
+  </si>
+  <si>
+    <t>(086/182)</t>
+  </si>
+  <si>
+    <t>Scream Tail</t>
+  </si>
+  <si>
+    <t>Alcremie-V</t>
+  </si>
+  <si>
+    <t>CPA</t>
+  </si>
+  <si>
+    <t>(22/073)</t>
+  </si>
+  <si>
+    <t>Jynx ex</t>
+  </si>
+  <si>
+    <t>(124/165)</t>
+  </si>
+  <si>
+    <t>Arcanine ex</t>
+  </si>
+  <si>
+    <t>SV1</t>
+  </si>
+  <si>
+    <t>(032/198)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +173,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.3"/>
       <color rgb="FF0D0D0D"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -156,10 +205,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11BDE86-4142-489B-AB31-04E5DE85BE37}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,6 +635,72 @@
         <v>26</v>
       </c>
     </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
